--- a/data/trans_dic/P8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>14,22%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,28%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,87%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>13,21%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,11</t>
+          <t>3,43; 14,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,08</t>
+          <t>5,6; 17,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 14,14</t>
+          <t>7,62; 16,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,08</t>
+          <t>6,05; 12,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,6</t>
+          <t>4,31; 15,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 17,59</t>
+          <t>7,29; 19,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,07; 20,57</t>
+          <t>8,38; 19,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 28,27</t>
+          <t>12,31; 21,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 15,34</t>
+          <t>13,29; 21,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,12</t>
+          <t>12,47; 26,25</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,53</t>
+          <t>6,75; 15,15</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 16,66</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 17,86</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 16,38</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,53; 20,69</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,7</t>
+          <t>3,7; 9,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,27</t>
+          <t>4,57; 10,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,43</t>
+          <t>5,5; 11,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,17</t>
+          <t>5,96; 10,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,86</t>
+          <t>5,49; 11,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,28</t>
+          <t>5,16; 13,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,34</t>
+          <t>4,68; 9,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,82</t>
+          <t>4,24; 8,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,79</t>
+          <t>4,1; 7,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,21</t>
+          <t>5,02; 10,49</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,98</t>
+          <t>5,1; 9,98</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 9,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 8,94</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 8,49</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 10,05</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>9,08%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,46%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,25%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,05%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 12,53</t>
+          <t>4,01; 13,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,8</t>
+          <t>6,03; 14,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,12</t>
+          <t>5,65; 13,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,84</t>
+          <t>6,51; 12,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,77</t>
+          <t>6,65; 15,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,12</t>
+          <t>1,4; 5,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,3</t>
+          <t>2,04; 6,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,53</t>
+          <t>4,94; 10,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,94</t>
+          <t>5,5; 10,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,16</t>
+          <t>6,39; 12,37</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,59</t>
+          <t>3,17; 8,16</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 9,74</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 10,22</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 10,25</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 12,49</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,04</t>
+          <t>6,1; 10,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,41</t>
+          <t>4,08; 8,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,74</t>
+          <t>4,72; 10,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,05</t>
+          <t>5,78; 12,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 9,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 9,58</t>
+          <t>6,66; 10,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,6</t>
+          <t>7,97; 13,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,87</t>
+          <t>3,49; 9,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,07</t>
+          <t>6,8; 15,13</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,22</t>
+          <t>6,81; 9,63</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 10,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 8,86</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 12,42</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 9,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 9,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 9,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 10,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 10,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 9,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 9,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 10,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 12,93</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 8,74</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 9,12</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 9,37</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 10,01</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 11,34</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17017</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34465</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60158</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65669</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40294</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33416</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57341</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>105385</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153071</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>121088</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>50433</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>91806</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>165543</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>218740</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>161383</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7772; 33137</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18980; 57658</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40401; 85592</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>44029; 92997</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19156; 69942</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19086; 52322</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35327; 84003</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>78024; 137856</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>118474; 192509</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80075; 168548</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32933; 73953</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>61802; 126767</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>132181; 207921</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>175568; 265264</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>114410; 224793</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38383</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67315</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94270</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128954</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85843</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57995</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67586</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73745</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85679</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79362</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>96378</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>134901</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>168015</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>214633</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>165205</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24089; 60222</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42590; 94895</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66434; 133849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96690; 173297</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58565; 119002</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36873; 95988</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46814; 94831</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52323; 100041</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>61826; 114623</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54321; 113402</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>69695; 136283</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>104742; 174560</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>133308; 218165</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>171303; 265612</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>127023; 215754</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35177</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>70162</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71682</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>100313</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>82650</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16308</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28677</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66174</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88270</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81439</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>51485</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>98839</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>137857</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>188584</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>164089</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18288; 63014</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43143; 105490</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47750; 111133</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71202; 136964</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55269; 125795</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7421; 31647</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15669; 48332</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>46373; 94044</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63896; 119770</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57360; 111007</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>31301; 80587</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>66777; 144577</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>105656; 182354</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>149815; 231183</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>124709; 215884</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>166529</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87537</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61210</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>95732</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>173012</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>144956</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45594</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100293</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>339540</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>232493</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>106804</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>196025</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>128917; 218054</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59422; 119599</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40508; 87390</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62427; 139515</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>139242; 213107</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>111655; 187926</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26635; 69969</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66688; 148377</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>286248; 404681</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>189220; 289241</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>78598; 143514</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>146784; 255884</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>257106</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>259479</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>287320</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>294937</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>304519</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>280731</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>298560</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>290899</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>327021</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>382182</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>537836</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>558040</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>578218</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>621958</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>686701</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>208411; 318031</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>210581; 323375</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>236497; 343613</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>238854; 352981</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>245850; 374142</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>232416; 337441</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>242773; 357179</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>243201; 344081</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>275278; 382110</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>313305; 465771</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>465284; 615561</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>491217; 642039</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>507218; 656555</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>543445; 701040</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>597538; 796477</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
